--- a/InputData/Course A_StudentsResults_Year 1.xlsx
+++ b/InputData/Course A_StudentsResults_Year 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PTS\pts-project\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +165,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -444,16 +455,16 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -461,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>7921</v>
       </c>
@@ -469,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>7922</v>
       </c>
@@ -477,7 +488,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>7938</v>
       </c>
@@ -485,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>7907</v>
       </c>
@@ -493,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>7448</v>
       </c>
@@ -501,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>7909</v>
       </c>
@@ -509,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7910</v>
       </c>
@@ -517,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7911</v>
       </c>
@@ -525,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6532</v>
       </c>
@@ -533,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>7912</v>
       </c>
@@ -541,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>8019</v>
       </c>
@@ -549,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>7941</v>
       </c>
@@ -557,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>7942</v>
       </c>
@@ -565,7 +576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>7913</v>
       </c>
@@ -573,7 +584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>7943</v>
       </c>
@@ -581,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>7924</v>
       </c>
@@ -589,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>7944</v>
       </c>
@@ -597,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>7914</v>
       </c>
@@ -605,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>7915</v>
       </c>
@@ -613,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>7916</v>
       </c>
@@ -621,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>7925</v>
       </c>
@@ -629,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>7926</v>
       </c>
@@ -637,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>7945</v>
       </c>
@@ -645,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>7946</v>
       </c>
@@ -653,7 +664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>7927</v>
       </c>
@@ -661,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>7947</v>
       </c>
@@ -669,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>7948</v>
       </c>
@@ -677,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>7949</v>
       </c>
@@ -685,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>7928</v>
       </c>
@@ -693,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>7929</v>
       </c>
@@ -701,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>7930</v>
       </c>
@@ -709,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>7950</v>
       </c>
@@ -717,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>7917</v>
       </c>
@@ -725,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>7931</v>
       </c>
@@ -733,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>7951</v>
       </c>
@@ -741,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>7932</v>
       </c>
@@ -749,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>7952</v>
       </c>
@@ -757,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>7918</v>
       </c>
@@ -765,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>7953</v>
       </c>
@@ -773,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>7933</v>
       </c>
@@ -781,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>7934</v>
       </c>
@@ -789,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>7919</v>
       </c>
@@ -797,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>7954</v>
       </c>
@@ -805,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>7955</v>
       </c>
@@ -813,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>7935</v>
       </c>
@@ -821,7 +832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>7936</v>
       </c>
@@ -833,6 +844,9 @@
   <sortState ref="A5:B52">
     <sortCondition ref="A4"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>